--- a/Assets/Excel/Enemy.xlsx
+++ b/Assets/Excel/Enemy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\Kill-Three-Mob-Then-Win\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2208C03-C96C-41CD-8100-4A8AB95D0099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B360759-10A2-430A-B64A-987FFACAB623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3960" yWindow="1640" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -166,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -179,6 +179,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -462,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -476,7 +479,7 @@
     <col min="8" max="8" width="14.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -528,7 +531,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="84" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="56" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2001</v>
       </c>
@@ -548,6 +551,9 @@
         <v>15</v>
       </c>
       <c r="G3" s="2"/>
+      <c r="H3" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="84" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -569,6 +575,9 @@
         <v>19</v>
       </c>
       <c r="G4" s="2"/>
+      <c r="H4" s="5">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="42" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -588,6 +597,9 @@
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
+      <c r="H5" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="56" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -609,6 +621,9 @@
         <v>26</v>
       </c>
       <c r="G6" s="2"/>
+      <c r="H6" s="5">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Excel/Enemy.xlsx
+++ b/Assets/Excel/Enemy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\Kill-Three-Mob-Then-Win\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B360759-10A2-430A-B64A-987FFACAB623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBADAB9-E005-497D-82B6-461B61E3F205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="1640" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Id</t>
   </si>
@@ -33,96 +33,32 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Action Kind</t>
-  </si>
-  <si>
-    <t>Action Order</t>
-  </si>
-  <si>
-    <t>Health</t>
-  </si>
-  <si>
-    <t>Special Effect</t>
-  </si>
-  <si>
-    <t>PrefabPath</t>
-  </si>
-  <si>
-    <t>名字</t>
-  </si>
-  <si>
-    <t>行动种类（数值需要频繁测试更改）</t>
-  </si>
-  <si>
-    <t>行动顺序</t>
-  </si>
-  <si>
-    <t>血量（需要测试）</t>
-  </si>
-  <si>
-    <t>特殊效果</t>
-  </si>
-  <si>
     <t>贪</t>
   </si>
   <si>
-    <t>1.对玩家造成2*5点伤害（要表现出多段伤害）or2.获得12点格挡or3.提升自己造成的伤害，每提升一次增加1点（即逐渐
-变成3*5，4*5）</t>
-  </si>
-  <si>
-    <t>1或者2--1或者2--1或者2--3......以此不断循环</t>
-  </si>
-  <si>
-    <t>死亡后将一张诅咒牌放入你的牌库（诅咒牌没有效果且无法被打出）持续整个游戏！</t>
-  </si>
-  <si>
     <t>嗔</t>
   </si>
   <si>
-    <t xml:space="preserve">1.用一个回合蓄力，并在下一个回合对玩家造成35点伤害or2.用一个回合蓄力，并在下一个回合回复自己已损失的30%生命值or3.对玩家造成15点伤害or4.使玩家在下两回合造成的伤害变为原本的50%or5.使玩家每回合抽牌数减少1点
-</t>
-  </si>
-  <si>
-    <t>5（只会用一次）--3--4--1--2...以此不断循环</t>
-  </si>
-  <si>
-    <t>减少1点玩家在蓄力后的一回合可使用的费用</t>
-  </si>
-  <si>
-    <t>痴（第一阶段）</t>
-  </si>
-  <si>
-    <t>1.对玩家造成3*6点伤害or2.获得15点格挡，每使用一次自身造成的伤害提升2点3.消灭自身，并减少玩家1点费用上限</t>
-  </si>
-  <si>
-    <t>1或者2--1或者2--1或者2......以此不断循环，当血量低于50时当回合行动强制变为进行3</t>
-  </si>
-  <si>
     <t>痴（第二阶段）</t>
-  </si>
-  <si>
-    <t>1.获得10点格挡向玩家抽牌区洗入2张咒术牌，当玩家抽到该咒术牌时对玩家造成5点伤害并将诅咒牌消耗掉or2.造成20点伤害，并回复未被格挡阻挡的血量or3.移除自身身上的负面buff（水+火的效果和水+木的效果），并在下两个回合内不会附着上元素</t>
-  </si>
-  <si>
-    <t>每回合随机一个，不会连续进行3，也不会第一个回合进行3</t>
-  </si>
-  <si>
-    <t>每触发一次元素反应，受到的伤害提升10%</t>
-  </si>
-  <si>
-    <t>预制体路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标识符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BaseDamage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>基础攻击力</t>
+    <t>HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>痴（第一阶段）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrefabPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Character/TestEnemy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -166,7 +102,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -175,13 +111,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -465,15 +398,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="52.6640625" customWidth="1"/>
-    <col min="4" max="4" width="27.08203125" customWidth="1"/>
-    <col min="5" max="5" width="11.9140625" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="7.08203125" customWidth="1"/>
+    <col min="4" max="4" width="14.08203125" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="22.58203125" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" customWidth="1"/>
     <col min="8" max="8" width="14.58203125" customWidth="1"/>
@@ -483,147 +417,111 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>30</v>
-      </c>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="56" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2001</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
         <v>150</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="5">
+      <c r="D3" s="3">
         <v>2</v>
       </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="84" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2002</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3">
         <v>200</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="5">
+      <c r="D4" s="3">
         <v>15</v>
       </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2003</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3">
         <v>150</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="5">
+      <c r="D5" s="3">
         <v>3</v>
       </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="56" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2004</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3">
         <v>300</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="5">
+      <c r="D6" s="3">
         <v>20</v>
       </c>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Excel/Enemy.xlsx
+++ b/Assets/Excel/Enemy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\Kill-Three-Mob-Then-Win\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBADAB9-E005-497D-82B6-461B61E3F205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2721B97-E6B0-4AE8-A38E-F7DEB41DD87F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3960" yWindow="1640" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Id</t>
   </si>
@@ -58,7 +58,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefab/Character/TestEnemy</t>
+    <t>Prefab/Character/Boss1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Character/Boss2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Character/Boss3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Character/Boss4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -399,7 +411,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -477,7 +489,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="3"/>
@@ -497,7 +509,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="3"/>
@@ -517,7 +529,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="3"/>

--- a/Assets/Excel/Enemy.xlsx
+++ b/Assets/Excel/Enemy.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Id</t>
   </si>
@@ -37,16 +37,10 @@
     <t>Name</t>
   </si>
   <si>
-    <t>行动种类（数值需要频繁测试更改）</t>
+    <t>HP</t>
   </si>
   <si>
-    <t>行动顺序</t>
-  </si>
-  <si>
-    <t>血量（需要测试）</t>
-  </si>
-  <si>
-    <t>特殊效果</t>
+    <t>BaseDamage</t>
   </si>
   <si>
     <t>PrefabPath</t>
@@ -55,48 +49,25 @@
     <t>贪</t>
   </si>
   <si>
-    <t>1.对玩家造成2*5点伤害（要表现出多段伤害）or2.获得12点格挡or3.提升自己造成的伤害，每提升一次增加1点（即逐渐变成3*5，4*5）</t>
-  </si>
-  <si>
-    <t>1或者2--1或者2--1或者2--3......以此不断循环</t>
-  </si>
-  <si>
-    <t>死亡后将一张诅咒牌放入你的牌库（诅咒牌没有效果且无法被打出）持续整个游戏！</t>
+    <t>Prefab/Character/Boss1</t>
   </si>
   <si>
     <t>嗔</t>
   </si>
   <si>
-    <t xml:space="preserve">1.用一个回合蓄力，并在下一个回合对玩家造成40点伤害or2.用一个回合蓄力，并在下一个回合回复自己已损失的30%生命值or3.对玩家造成20点伤害or4.使玩家每回合抽牌数减少1点
-</t>
-  </si>
-  <si>
-    <t>4（只会用一次）--1--3--2...以此不断循环</t>
-  </si>
-  <si>
-    <t>减少1点玩家在蓄力后的一回合可使用的费用</t>
+    <t>Prefab/Character/Boss2</t>
   </si>
   <si>
     <t>痴（第一阶段）</t>
   </si>
   <si>
-    <t>1.对玩家造成3*6点伤害or2.获得15点格挡，每使用一次自身造成的伤害提升2点3.消灭自身，并减少玩家1点费用上限</t>
-  </si>
-  <si>
-    <t>1或者2--1或者2--1或者2......以此不断循环，当血量低
-于50时当回合行动强制变为进行3</t>
+    <t>Prefab/Character/Boss3</t>
   </si>
   <si>
     <t>痴（第二阶段）</t>
   </si>
   <si>
-    <t>1.获得10点格挡向玩家抽牌区洗入2张咒术牌，当玩家抽到该咒术牌时对玩家造成5点伤害并将诅咒牌消耗掉or2.造成20点伤害，并回复未被格挡的血量or3.移除自身身上的负面buff（三种元素附着），扣除玩家8点血量</t>
-  </si>
-  <si>
-    <t>每回合随机一个，不会连续进行3</t>
-  </si>
-  <si>
-    <t>每触发一次元素反应，受到15点伤害</t>
+    <t>Prefab/Character/Boss4</t>
   </si>
 </sst>
 </file>
@@ -726,10 +697,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1050,24 +1021,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="8.04166666666667" customWidth="1"/>
     <col min="2" max="2" width="15.8583333333333" customWidth="1"/>
-    <col min="3" max="3" width="106.908333333333" customWidth="1"/>
-    <col min="4" max="4" width="54.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="16.0833333333333" customWidth="1"/>
+    <col min="3" max="3" width="20.1416666666667" customWidth="1"/>
+    <col min="4" max="4" width="16.3166666666667" customWidth="1"/>
+    <col min="5" max="5" width="30.2083333333333" customWidth="1"/>
     <col min="6" max="6" width="41.025" customWidth="1"/>
     <col min="7" max="7" width="12.1666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1080,14 +1051,8 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" ht="45" customHeight="1" spans="1:6">
@@ -1095,164 +1060,159 @@
         <v>2000</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
         <v>150</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" ht="39" customHeight="1" spans="1:6">
+      <c r="D2" s="1">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" ht="39" customHeight="1" spans="1:5">
       <c r="A3">
         <v>2001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2">
         <v>200</v>
       </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" ht="28.5" spans="1:5">
+      <c r="D3" s="1">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>2002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="2">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="5" ht="28.5" spans="2:6">
+      <c r="D4" s="2">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>2003</v>
+      </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2">
+        <v>300</v>
+      </c>
+      <c r="D5" s="1">
         <v>20</v>
       </c>
-      <c r="E5" s="2">
-        <v>300</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="2"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="2"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
